--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-6018-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-6018-top-by-best-speed.xlsx
@@ -50,7 +50,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 14 сек.</t>
+    <t>13 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -68,7 +68,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>86 ч. 39 мин. 6 сек.</t>
+    <t>86 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -86,7 +86,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>30 ч. 48 мин. 2 сек.</t>
+    <t>30 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -113,7 +113,7 @@
     <t>realemerald</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 7 сек.</t>
+    <t>4 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>9–10</t>
@@ -122,7 +122,7 @@
     <t>Galoperidol</t>
   </si>
   <si>
-    <t>2 ч. 28 мин. 4 сек.</t>
+    <t>2 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>_Daemon_</t>
@@ -137,7 +137,7 @@
     <t>Andre_Macareno</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 57 сек.</t>
+    <t>4 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -146,7 +146,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>22 ч. 4 мин. 17 сек.</t>
+    <t>22 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -164,7 +164,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>62 ч. 26 мин. 2 сек.</t>
+    <t>62 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -182,7 +182,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 2 сек.</t>
+    <t>5 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>Алина_</t>
@@ -197,7 +197,7 @@
     <t>Morrikon</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 39 сек.</t>
+    <t>8 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -251,7 +251,7 @@
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>5 ч. 17 мин. 1 сек.</t>
+    <t>5 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>25–26</t>
@@ -266,7 +266,7 @@
     <t>sbox</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 48 сек.</t>
+    <t>8 ч. 08 мин. 48 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -275,7 +275,7 @@
     <t>iforrest</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 9 сек.</t>
+    <t>3 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -335,7 +335,7 @@
     <t>Fudo</t>
   </si>
   <si>
-    <t>8 ч. 16 мин. 2 сек.</t>
+    <t>8 ч. 16 мин. 02 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -353,7 +353,7 @@
     <t>Юрикор_Мишка</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 2 сек.</t>
+    <t>6 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>37–38</t>
@@ -377,7 +377,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>54 ч. 53 мин. 9 сек.</t>
+    <t>54 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -419,7 +419,7 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>30 ч. 1 мин. 42 сек.</t>
+    <t>30 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -464,7 +464,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 57 сек.</t>
+    <t>17 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -491,7 +491,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 39 сек.</t>
+    <t>31 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>53–54</t>
@@ -515,7 +515,7 @@
     <t>liuluil</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 59 сек.</t>
+    <t>4 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>56–57</t>
@@ -530,7 +530,7 @@
     <t>Торописька</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 15 сек.</t>
+    <t>8 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -665,7 +665,7 @@
     <t>plytishka</t>
   </si>
   <si>
-    <t>6 ч. 42 мин. 5 сек.</t>
+    <t>6 ч. 42 мин. 05 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -674,7 +674,7 @@
     <t>RealWizZard</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 0 сек.</t>
+    <t>3 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -701,7 +701,7 @@
     <t>libertadore</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 58 сек.</t>
+    <t>22 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>79</t>
@@ -728,13 +728,13 @@
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 3 сек.</t>
+    <t>6 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>Davydoff</t>
   </si>
   <si>
-    <t>41 ч. 54 мин. 6 сек.</t>
+    <t>41 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>83–85</t>
@@ -764,7 +764,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>6 ч. 51 мин. 4 сек.</t>
+    <t>6 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>87–89</t>
@@ -785,7 +785,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>61 ч. 0 мин. 42 сек.</t>
+    <t>61 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -860,7 +860,7 @@
     <t>turbulent</t>
   </si>
   <si>
-    <t>58 ч. 22 мин. 9 сек.</t>
+    <t>58 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>99–101</t>
@@ -923,19 +923,19 @@
     <t>NEsanych</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 45 сек.</t>
+    <t>15 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>_onix</t>
   </si>
   <si>
-    <t>19 ч. 6 мин. 8 сек.</t>
+    <t>19 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>batkovich</t>
   </si>
   <si>
-    <t>23 ч. 1 мин. 56 сек.</t>
+    <t>23 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>109–110</t>
@@ -974,13 +974,13 @@
     <t>Flerik</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 58 сек.</t>
+    <t>12 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>Anhel-kam</t>
   </si>
   <si>
-    <t>185 ч. 45 мин. 8 сек.</t>
+    <t>185 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>115–116</t>
@@ -989,7 +989,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 3 сек.</t>
+    <t>9 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>Maksuta</t>
@@ -1004,7 +1004,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 3 сек.</t>
+    <t>11 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>118–119</t>
@@ -1019,7 +1019,7 @@
     <t>AlexeiD</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 4 сек.</t>
+    <t>9 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>120–121</t>
@@ -1067,7 +1067,7 @@
     <t>Chadfleanthony</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 51 сек.</t>
+    <t>4 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>АдамБожевич</t>
@@ -1091,7 +1091,7 @@
     <t>GGHFGL</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 1 сек.</t>
+    <t>7 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>Лень</t>
@@ -1109,7 +1109,7 @@
     <t>Alex199</t>
   </si>
   <si>
-    <t>12 ч. 56 мин. 1 сек.</t>
+    <t>12 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>-FORCE-</t>
@@ -1136,7 +1136,7 @@
     <t>FatboyPrince</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 51 сек.</t>
+    <t>9 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>igormsu</t>
@@ -1166,7 +1166,7 @@
     <t>4bia</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 8 сек.</t>
+    <t>2 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>140–141</t>
@@ -1235,7 +1235,7 @@
     <t>Grimpen</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 53 сек.</t>
+    <t>18 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>149</t>
@@ -1253,7 +1253,7 @@
     <t>Carcharias</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 57 сек.</t>
+    <t>3 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>Steinway</t>
@@ -1274,7 +1274,7 @@
     <t>SteeLFalcoN</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 45 сек.</t>
+    <t>4 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>154–155</t>
@@ -1298,7 +1298,7 @@
     <t>Тазы-валят</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 5 сек.</t>
+    <t>3 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>Дед-Пихто</t>
@@ -1334,7 +1334,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 20 сек.</t>
+    <t>13 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>162–164</t>
@@ -1343,7 +1343,7 @@
     <t>Langolierrr</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 1 сек.</t>
+    <t>4 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>Lucky_Cat</t>
@@ -1364,13 +1364,13 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 0 сек.</t>
+    <t>4 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>Evariste</t>
   </si>
   <si>
-    <t>15 ч. 59 мин. 1 сек.</t>
+    <t>15 ч. 59 мин. 01 сек.</t>
   </si>
   <si>
     <t>167–170</t>
@@ -1406,7 +1406,7 @@
     <t>arch_commander</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 25 сек.</t>
+    <t>15 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>Pcholka</t>
@@ -1421,7 +1421,7 @@
     <t>Manhunt714</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 50 сек.</t>
+    <t>7 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>ToCMan</t>
@@ -1460,7 +1460,7 @@
     <t>Zippin</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 24 сек.</t>
+    <t>5 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>179–181</t>
@@ -1496,7 +1496,7 @@
     <t>DMIB</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 8 сек.</t>
+    <t>4 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>T0RM0ZZZ</t>
@@ -1508,7 +1508,7 @@
     <t>VodViktor</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>Bolot</t>
@@ -1535,7 +1535,7 @@
     <t>Zikting</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 20 сек.</t>
+    <t>19 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>190–193</t>
@@ -1580,7 +1580,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>15 ч. 43 мин. 0 сек.</t>
+    <t>15 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>196–197</t>
@@ -1619,7 +1619,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 3 сек.</t>
+    <t>4 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>201</t>
@@ -1628,7 +1628,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 18 сек.</t>
+    <t>9 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>202–205</t>
@@ -1637,7 +1637,7 @@
     <t>mdanoff</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 8 сек.</t>
+    <t>5 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>ILyaDens</t>
@@ -1685,7 +1685,7 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>5 ч. 18 мин. 2 сек.</t>
+    <t>5 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>_-Shadow-_</t>
@@ -1715,7 +1715,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>80 ч. 31 мин. 0 сек.</t>
+    <t>80 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>215–216</t>
@@ -1784,7 +1784,7 @@
     <t>Geistero</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 40 сек.</t>
+    <t>4 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>Макрушин</t>
@@ -1799,13 +1799,13 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 7 сек.</t>
+    <t>3 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>6 ч. 25 мин. 9 сек.</t>
+    <t>6 ч. 25 мин. 09 сек.</t>
   </si>
   <si>
     <t>Holly_Maggie</t>
@@ -1832,7 +1832,7 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>19 ч. 17 мин. 4 сек.</t>
+    <t>19 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>232–237</t>
@@ -1859,13 +1859,13 @@
     <t>Малышка_Эн</t>
   </si>
   <si>
-    <t>11 ч. 41 мин. 3 сек.</t>
+    <t>11 ч. 41 мин. 03 сек.</t>
   </si>
   <si>
     <t>a1987zz</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 8 сек.</t>
+    <t>13 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>Satory</t>
@@ -1922,7 +1922,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 9 сек.</t>
+    <t>20 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>245–246</t>
@@ -1946,7 +1946,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 24 сек.</t>
+    <t>4 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>248</t>
@@ -1994,13 +1994,13 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 39 сек.</t>
+    <t>5 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>Massik</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 53 сек.</t>
+    <t>9 ч. 04 мин. 53 сек.</t>
   </si>
   <si>
     <t>kernal_debuger</t>
@@ -2021,7 +2021,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>48 ч. 46 мин. 6 сек.</t>
+    <t>48 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>258–260</t>
@@ -2051,7 +2051,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 26 сек.</t>
+    <t>4 ч. 07 мин. 26 сек.</t>
   </si>
   <si>
     <t>Аленка</t>
@@ -2072,7 +2072,7 @@
     <t>Vlados_</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>Емерал</t>
@@ -2129,7 +2129,7 @@
     <t>hedint</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 9 сек.</t>
+    <t>3 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>fast_turtle</t>
@@ -2141,7 +2141,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>36 ч. 54 мин. 2 сек.</t>
+    <t>36 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>275–277</t>
@@ -2156,7 +2156,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 45 сек.</t>
+    <t>14 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>Realshi</t>
@@ -2183,7 +2183,7 @@
     <t>kameheb</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 57 сек.</t>
+    <t>13 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>281–283</t>
@@ -2204,7 +2204,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>18 ч. 44 мин. 8 сек.</t>
+    <t>18 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>284–289</t>
@@ -2213,7 +2213,7 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 6 сек.</t>
+    <t>3 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>Перфил</t>
@@ -2249,7 +2249,7 @@
     <t>Flinty518</t>
   </si>
   <si>
-    <t>3 ч. 27 мин. 1 сек.</t>
+    <t>3 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>Doctorisimus</t>
@@ -2261,7 +2261,7 @@
     <t>Jinglse</t>
   </si>
   <si>
-    <t>47 ч. 35 мин. 6 сек.</t>
+    <t>47 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>293–303</t>
@@ -2282,7 +2282,7 @@
     <t>treexH</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 7 сек.</t>
+    <t>4 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>Infinit</t>
@@ -2312,7 +2312,7 @@
     <t>_ECO_</t>
   </si>
   <si>
-    <t>11 ч. 34 мин. 5 сек.</t>
+    <t>11 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>iji</t>
@@ -2324,7 +2324,7 @@
     <t>yulian</t>
   </si>
   <si>
-    <t>36 ч. 32 мин. 2 сек.</t>
+    <t>36 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>_sorriso_</t>
@@ -2339,7 +2339,7 @@
     <t>maxon4ik</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 12 сек.</t>
+    <t>5 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>305</t>
@@ -2396,13 +2396,13 @@
     <t>Gudron</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 9 сек.</t>
+    <t>3 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>gaintsev</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 20 сек.</t>
+    <t>7 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>trup225</t>
@@ -2414,7 +2414,7 @@
     <t>Azurit</t>
   </si>
   <si>
-    <t>26 ч. 53 мин. 6 сек.</t>
+    <t>26 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>Старец</t>
@@ -2468,7 +2468,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 21 сек.</t>
+    <t>7 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>InsydeR</t>
@@ -2519,7 +2519,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>24 ч. 16 мин. 0 сек.</t>
+    <t>24 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>331</t>
@@ -2528,7 +2528,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 1 сек.</t>
+    <t>4 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>332–334</t>
@@ -2537,7 +2537,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>dotdet</t>
@@ -2564,13 +2564,13 @@
     <t>anahata</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 57 сек.</t>
+    <t>4 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>DeDlol</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 55 сек.</t>
+    <t>5 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>newsuslik</t>
@@ -2588,7 +2588,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 47 сек.</t>
+    <t>18 ч. 00 мин. 47 сек.</t>
   </si>
   <si>
     <t>200поСкоростной</t>
@@ -2627,13 +2627,13 @@
     <t>amadeus01</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 25 сек.</t>
+    <t>13 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>MightySan</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 19 сек.</t>
+    <t>19 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>348</t>
@@ -2657,7 +2657,7 @@
     <t>Telefunkenist</t>
   </si>
   <si>
-    <t>4 ч. 26 мин. 1 сек.</t>
+    <t>4 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>Scarpion</t>
@@ -2669,7 +2669,7 @@
     <t>counterfeit</t>
   </si>
   <si>
-    <t>17 ч. 7 мин. 33 сек.</t>
+    <t>17 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>VisaryMaster</t>
@@ -2696,7 +2696,7 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>18 ч. 13 мин. 0 сек.</t>
+    <t>18 ч. 13 мин. 00 сек.</t>
   </si>
   <si>
     <t>357–358</t>
@@ -2711,7 +2711,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 6 сек.</t>
+    <t>3 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>359–363</t>
@@ -2726,13 +2726,13 @@
     <t>бо1</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 9 сек.</t>
+    <t>5 ч. 27 мин. 09 сек.</t>
   </si>
   <si>
     <t>Ronnie_</t>
   </si>
   <si>
-    <t>6 ч. 55 мин. 4 сек.</t>
+    <t>6 ч. 55 мин. 04 сек.</t>
   </si>
   <si>
     <t>felicia_</t>
@@ -2744,7 +2744,7 @@
     <t>Espera</t>
   </si>
   <si>
-    <t>9 ч. 38 мин. 4 сек.</t>
+    <t>9 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>364–365</t>
@@ -2774,7 +2774,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 22 сек.</t>
+    <t>26 ч. 08 мин. 22 сек.</t>
   </si>
   <si>
     <t>368</t>
@@ -2792,7 +2792,7 @@
     <t>guojia</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 18 сек.</t>
+    <t>5 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>belkaoboroten</t>
@@ -2804,7 +2804,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 47 сек.</t>
+    <t>9 ч. 07 мин. 47 сек.</t>
   </si>
   <si>
     <t>372–377</t>
@@ -2837,13 +2837,13 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>48 ч. 54 мин. 4 сек.</t>
+    <t>48 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>78 ч. 5 мин. 50 сек.</t>
+    <t>78 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>378</t>
@@ -2867,13 +2867,13 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>16 ч. 18 мин. 0 сек.</t>
+    <t>16 ч. 18 мин. 00 сек.</t>
   </si>
   <si>
     <t>счастливка</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 4 сек.</t>
+    <t>22 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>382</t>
@@ -2882,7 +2882,7 @@
     <t>ZeaLotFeed</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 36 сек.</t>
+    <t>8 ч. 05 мин. 36 сек.</t>
   </si>
   <si>
     <t>383–386</t>
@@ -2897,7 +2897,7 @@
     <t>АнтонМискевич</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 1 сек.</t>
+    <t>5 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>Наташай</t>
@@ -2951,7 +2951,7 @@
     <t>Kl9ksa</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 5 сек.</t>
+    <t>11 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>393–396</t>
@@ -2960,13 +2960,13 @@
     <t>Lisander</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 18 сек.</t>
+    <t>16 ч. 05 мин. 18 сек.</t>
   </si>
   <si>
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>21 ч. 17 мин. 3 сек.</t>
+    <t>21 ч. 17 мин. 03 сек.</t>
   </si>
   <si>
     <t>Gardenstone</t>
@@ -3002,7 +3002,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>45 ч. 9 мин. 9 сек.</t>
+    <t>45 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>400–405</t>
@@ -3035,7 +3035,7 @@
     <t>gree</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 42 сек.</t>
+    <t>9 ч. 05 мин. 42 сек.</t>
   </si>
   <si>
     <t>NinaVladi</t>
@@ -3050,7 +3050,7 @@
     <t>training</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 4 сек.</t>
+    <t>3 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>KiberBot</t>
@@ -3062,7 +3062,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 20 сек.</t>
+    <t>19 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>Pipl</t>
@@ -3119,7 +3119,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>28 ч. 53 мин. 6 сек.</t>
+    <t>28 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>417–419</t>
@@ -3134,13 +3134,13 @@
     <t>Watcher13</t>
   </si>
   <si>
-    <t>7 ч. 27 мин. 2 сек.</t>
+    <t>7 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 40 сек.</t>
+    <t>12 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>420–423</t>
@@ -3167,7 +3167,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>198 ч. 23 мин. 8 сек.</t>
+    <t>198 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>424</t>
@@ -3191,7 +3191,7 @@
     <t>piu_piu</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 26 сек.</t>
+    <t>12 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>427–428</t>
@@ -3215,7 +3215,7 @@
     <t>Azartezem</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 8 сек.</t>
+    <t>5 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>Semandr</t>
@@ -3269,7 +3269,7 @@
     <t>Waleria</t>
   </si>
   <si>
-    <t>6 ч. 27 мин. 0 сек.</t>
+    <t>6 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>438</t>
@@ -3323,7 +3323,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 35 сек.</t>
+    <t>16 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>Рафаил</t>
@@ -3344,7 +3344,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>15 ч. 32 мин. 3 сек.</t>
+    <t>15 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>448–450</t>
@@ -3374,19 +3374,19 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 15 сек.</t>
+    <t>4 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>feel018</t>
   </si>
   <si>
-    <t>34 ч. 16 мин. 0 сек.</t>
+    <t>34 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>Эромдомдом</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 54 сек.</t>
+    <t>35 ч. 05 мин. 54 сек.</t>
   </si>
   <si>
     <t>454–456</t>
@@ -3401,7 +3401,7 @@
     <t>Ludimagister</t>
   </si>
   <si>
-    <t>17 ч. 41 мин. 0 сек.</t>
+    <t>17 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>Rightwheel</t>
@@ -3440,7 +3440,7 @@
     <t>Тарья</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 22 сек.</t>
+    <t>15 ч. 01 мин. 22 сек.</t>
   </si>
   <si>
     <t>Vovaldo</t>
@@ -3455,19 +3455,19 @@
     <t>моном</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 50 сек.</t>
+    <t>4 ч. 09 мин. 50 сек.</t>
   </si>
   <si>
     <t>stag_</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 29 сек.</t>
+    <t>9 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>22 ч. 5 мин. 20 сек.</t>
+    <t>22 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>465–469</t>
@@ -3476,13 +3476,13 @@
     <t>кенгуру_саня</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 26 сек.</t>
+    <t>4 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>Атата</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 3 сек.</t>
+    <t>4 ч. 56 мин. 03 сек.</t>
   </si>
   <si>
     <t>iBumble</t>
@@ -3500,7 +3500,7 @@
     <t>Vadim_K</t>
   </si>
   <si>
-    <t>31 ч. 18 мин. 2 сек.</t>
+    <t>31 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>470–475</t>
@@ -3551,7 +3551,7 @@
     <t>wertuss</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>478–482</t>
@@ -3566,7 +3566,7 @@
     <t>Vergessen</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 38 сек.</t>
+    <t>5 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>mantilet</t>
@@ -3593,7 +3593,7 @@
     <t>IdSomeName</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 34 сек.</t>
+    <t>19 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>SCL</t>
@@ -3629,13 +3629,13 @@
     <t>Floopyy</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 5 сек.</t>
+    <t>4 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>Antoniwww</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 15 сек.</t>
+    <t>8 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>SamArKin</t>
@@ -3662,7 +3662,7 @@
     <t>Brunetka</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 41 сек.</t>
+    <t>6 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>494–498</t>
@@ -3731,7 +3731,7 @@
     <t>EvilMachine</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 2 сек.</t>
+    <t>4 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>IamCrazy</t>
@@ -3749,7 +3749,7 @@
     <t>Yoga888</t>
   </si>
   <si>
-    <t>23 ч. 5 мин. 10 сек.</t>
+    <t>23 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>507–508</t>
@@ -3797,7 +3797,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>43 ч. 15 мин. 8 сек.</t>
+    <t>43 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>514</t>
@@ -3815,7 +3815,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 54 сек.</t>
+    <t>5 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>Annabeth</t>
@@ -3827,7 +3827,7 @@
     <t>lnhuman</t>
   </si>
   <si>
-    <t>24 ч. 52 мин. 4 сек.</t>
+    <t>24 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>518</t>
@@ -3857,7 +3857,7 @@
     <t>lafit</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 1 сек.</t>
+    <t>5 ч. 59 мин. 01 сек.</t>
   </si>
   <si>
     <t>demonclown</t>
@@ -3878,7 +3878,7 @@
     <t>SanyaLive</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 2 сек.</t>
+    <t>4 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Азиат</t>
@@ -3899,7 +3899,7 @@
     <t>0beron</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 13 сек.</t>
+    <t>4 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>Imperanon</t>
@@ -3935,7 +3935,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 34 сек.</t>
+    <t>8 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>eksdak</t>
@@ -3959,7 +3959,7 @@
     <t>albertcoin</t>
   </si>
   <si>
-    <t>26 ч. 1 мин. 46 сек.</t>
+    <t>26 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>ArtIntel</t>
@@ -4025,7 +4025,7 @@
     <t>Jerichoni</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 17 сек.</t>
+    <t>4 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>snapfire</t>
@@ -4037,13 +4037,13 @@
     <t>Lensha2010</t>
   </si>
   <si>
-    <t>6 ч. 38 мин. 6 сек.</t>
+    <t>6 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>Дронио</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 56 сек.</t>
+    <t>10 ч. 04 мин. 56 сек.</t>
   </si>
   <si>
     <t>549–551</t>
@@ -4115,7 +4115,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 44 сек.</t>
+    <t>15 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>559–561</t>
@@ -4145,7 +4145,7 @@
     <t>Iterator</t>
   </si>
   <si>
-    <t>29 ч. 3 мин. 17 сек.</t>
+    <t>29 ч. 03 мин. 17 сек.</t>
   </si>
   <si>
     <t>202</t>
@@ -4172,7 +4172,7 @@
     <t>Nathaliya</t>
   </si>
   <si>
-    <t>39 ч. 26 мин. 9 сек.</t>
+    <t>39 ч. 26 мин. 09 сек.</t>
   </si>
   <si>
     <t>567</t>
@@ -4208,7 +4208,7 @@
     <t>vasilisa_v</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 0 сек.</t>
+    <t>12 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>colonel</t>
@@ -4241,7 +4241,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 34 сек.</t>
+    <t>5 ч. 02 мин. 34 сек.</t>
   </si>
   <si>
     <t>supersolder</t>
@@ -4268,7 +4268,7 @@
     <t>БомблюНаАйпаде</t>
   </si>
   <si>
-    <t>11 ч. 41 мин. 1 сек.</t>
+    <t>11 ч. 41 мин. 01 сек.</t>
   </si>
   <si>
     <t>Mr_Miyagi</t>
@@ -4289,7 +4289,7 @@
     <t>AtLanT_123</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 2 сек.</t>
+    <t>4 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>Яня</t>
@@ -4310,7 +4310,7 @@
     <t>mekh</t>
   </si>
   <si>
-    <t>50 ч. 2 мин. 11 сек.</t>
+    <t>50 ч. 02 мин. 11 сек.</t>
   </si>
   <si>
     <t>587–590</t>
@@ -4346,7 +4346,7 @@
     <t>pelmen</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 3 сек.</t>
+    <t>8 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>Jakline</t>
@@ -4421,7 +4421,7 @@
     <t>lislkap</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 2 сек.</t>
+    <t>9 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>ggs</t>
@@ -4436,7 +4436,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 8 сек.</t>
+    <t>4 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>shicotus</t>
@@ -4457,7 +4457,7 @@
     <t>LexusAmd</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 59 сек.</t>
+    <t>12 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>ЕНИ</t>
@@ -4478,7 +4478,7 @@
     <t>Ehoe</t>
   </si>
   <si>
-    <t>10 ч. 12 мин. 8 сек.</t>
+    <t>10 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>611–614</t>
@@ -4487,25 +4487,25 @@
     <t>alx_ol</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 10 сек.</t>
+    <t>5 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>Zephir</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 3 сек.</t>
+    <t>5 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>YuranTM</t>
   </si>
   <si>
-    <t>6 ч. 30 мин. 6 сек.</t>
+    <t>6 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>ВАТ</t>
   </si>
   <si>
-    <t>18 ч. 17 мин. 6 сек.</t>
+    <t>18 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>615–619</t>
@@ -4526,13 +4526,13 @@
     <t>Tolstij</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 57 сек.</t>
+    <t>8 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>Большой_Дрю</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 1 сек.</t>
+    <t>11 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>strekozza</t>
@@ -4568,19 +4568,19 @@
     <t>Salander</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 30 сек.</t>
+    <t>5 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>Joonior</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 8 сек.</t>
+    <t>6 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>Cooler195</t>
   </si>
   <si>
-    <t>64 ч. 3 мин. 47 сек.</t>
+    <t>64 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>626–627</t>
@@ -4604,7 +4604,7 @@
     <t>owiden</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 4 сек.</t>
+    <t>6 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>Vladimr</t>
@@ -4616,7 +4616,7 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>23 ч. 47 мин. 0 сек.</t>
+    <t>23 ч. 47 мин. 00 сек.</t>
   </si>
   <si>
     <t>631–634</t>
@@ -4631,7 +4631,7 @@
     <t>Попугай_Кеша</t>
   </si>
   <si>
-    <t>4 ч. 55 мин. 5 сек.</t>
+    <t>4 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>Deffisk</t>
@@ -4643,7 +4643,7 @@
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>104 ч. 0 мин. 7 сек.</t>
+    <t>104 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>635–637</t>
@@ -4664,7 +4664,7 @@
     <t>Egen</t>
   </si>
   <si>
-    <t>21 ч. 0 мин. 15 сек.</t>
+    <t>21 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>638–641</t>
@@ -4706,13 +4706,13 @@
     <t>Пашуня</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 13 сек.</t>
+    <t>14 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>JluCa</t>
   </si>
   <si>
-    <t>28 ч. 29 мин. 5 сек.</t>
+    <t>28 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>дерик</t>
@@ -4727,19 +4727,19 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 6 сек.</t>
+    <t>6 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>statyev</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 26 сек.</t>
+    <t>6 ч. 09 мин. 26 сек.</t>
   </si>
   <si>
     <t>Mask2017</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 36 сек.</t>
+    <t>7 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>Ирдэнс</t>
@@ -4760,7 +4760,7 @@
     <t>Skiper</t>
   </si>
   <si>
-    <t>6 ч. 21 мин. 0 сек.</t>
+    <t>6 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>652</t>
@@ -4769,7 +4769,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>119 ч. 6 мин. 5 сек.</t>
+    <t>119 ч. 06 мин. 05 сек.</t>
   </si>
   <si>
     <t>653–656</t>
@@ -4796,7 +4796,7 @@
     <t>leer</t>
   </si>
   <si>
-    <t>37 ч. 41 мин. 2 сек.</t>
+    <t>37 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>657</t>
@@ -4829,25 +4829,25 @@
     <t>Sssu</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 18 сек.</t>
+    <t>7 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>0Lika</t>
   </si>
   <si>
-    <t>8 ч. 28 мин. 2 сек.</t>
+    <t>8 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>Freighter</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 2 сек.</t>
+    <t>10 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>Spaider</t>
   </si>
   <si>
-    <t>21 ч. 2 мин. 52 сек.</t>
+    <t>21 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>664</t>
@@ -4880,7 +4880,7 @@
     <t>SashancheK</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 1 сек.</t>
+    <t>11 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>Gosick</t>
@@ -4892,13 +4892,13 @@
     <t>judigator</t>
   </si>
   <si>
-    <t>15 ч. 19 мин. 7 сек.</t>
+    <t>15 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>yamamoto013</t>
   </si>
   <si>
-    <t>22 ч. 39 мин. 7 сек.</t>
+    <t>22 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>innoKENTy</t>
@@ -4913,7 +4913,7 @@
     <t>Gesichtslos</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 42 сек.</t>
+    <t>6 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>kaldos</t>
@@ -4928,7 +4928,7 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>5 ч. 36 мин. 5 сек.</t>
+    <t>5 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>675–676</t>
@@ -4958,7 +4958,7 @@
     <t>calkul9tor</t>
   </si>
   <si>
-    <t>6 ч. 31 мин. 9 сек.</t>
+    <t>6 ч. 31 мин. 09 сек.</t>
   </si>
   <si>
     <t>bazzel</t>
@@ -4994,19 +4994,19 @@
     <t>Ares0000</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 5 сек.</t>
+    <t>5 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>_BP_</t>
   </si>
   <si>
-    <t>7 ч. 25 мин. 2 сек.</t>
+    <t>7 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>kjonix1337</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 2 сек.</t>
+    <t>9 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>Елена22В</t>
@@ -5057,7 +5057,7 @@
     <t>Tatsi_3006</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 0 сек.</t>
+    <t>15 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>694–696</t>
@@ -5066,7 +5066,7 @@
     <t>Callahan</t>
   </si>
   <si>
-    <t>8 ч. 17 мин. 7 сек.</t>
+    <t>8 ч. 17 мин. 07 сек.</t>
   </si>
   <si>
     <t>Shivo</t>
@@ -5078,7 +5078,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 4 сек.</t>
+    <t>13 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>697–702</t>
@@ -5117,7 +5117,7 @@
     <t>mythteria</t>
   </si>
   <si>
-    <t>42 ч. 13 мин. 7 сек.</t>
+    <t>42 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>703–707</t>
@@ -5126,13 +5126,13 @@
     <t>yarik7_6</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 39 сек.</t>
+    <t>5 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>Vitosspom</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 16 сек.</t>
+    <t>7 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>Ladynec</t>
@@ -5198,13 +5198,13 @@
     <t>JIug</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 23 сек.</t>
+    <t>6 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>sergius-ark</t>
   </si>
   <si>
-    <t>12 ч. 30 мин. 9 сек.</t>
+    <t>12 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>Клевая_черепаха</t>
@@ -5216,7 +5216,7 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 58 сек.</t>
+    <t>22 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>Lookatmybar</t>
@@ -5231,7 +5231,7 @@
     <t>Meryflight</t>
   </si>
   <si>
-    <t>6 ч. 37 мин. 2 сек.</t>
+    <t>6 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>Халк</t>
@@ -5291,13 +5291,13 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>15 ч. 31 мин. 2 сек.</t>
+    <t>15 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>shamer</t>
   </si>
   <si>
-    <t>41 ч. 53 мин. 4 сек.</t>
+    <t>41 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>730–732</t>
@@ -5306,19 +5306,19 @@
     <t>Kronig</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 11 сек.</t>
+    <t>7 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 18 сек.</t>
+    <t>10 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>jassy100</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 1 сек.</t>
+    <t>9 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>733–737</t>
@@ -5333,13 +5333,13 @@
     <t>Da_f</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 6 сек.</t>
+    <t>7 ч. 00 мин. 06 сек.</t>
   </si>
   <si>
     <t>Deep87</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 2 сек.</t>
+    <t>7 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>tinto</t>
@@ -5366,7 +5366,7 @@
     <t>Трамтарарам</t>
   </si>
   <si>
-    <t>11 ч. 36 мин. 0 сек.</t>
+    <t>11 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>740–743</t>
@@ -5381,7 +5381,7 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 25 сек.</t>
+    <t>17 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>AVIKOZA</t>
@@ -5393,7 +5393,7 @@
     <t>Vestnik-Kozaky</t>
   </si>
   <si>
-    <t>26 ч. 25 мин. 8 сек.</t>
+    <t>26 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>744–748</t>
@@ -5414,13 +5414,13 @@
     <t>7dd7</t>
   </si>
   <si>
-    <t>11 ч. 47 мин. 5 сек.</t>
+    <t>11 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>Danwer</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 38 сек.</t>
+    <t>14 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>Mister_Finka</t>
@@ -5462,7 +5462,7 @@
     <t>Lurlei</t>
   </si>
   <si>
-    <t>11 ч. 54 мин. 3 сек.</t>
+    <t>11 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>косогор_</t>
@@ -5501,7 +5501,7 @@
     <t>Антоний_</t>
   </si>
   <si>
-    <t>6 ч. 32 мин. 2 сек.</t>
+    <t>6 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>MrDenro</t>
@@ -5513,7 +5513,7 @@
     <t>_сахарок_</t>
   </si>
   <si>
-    <t>13 ч. 6 мин. 19 сек.</t>
+    <t>13 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>762</t>
@@ -5537,13 +5537,13 @@
     <t>undoundo</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 6 сек.</t>
+    <t>8 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>Vasia_Chekalin</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 51 сек.</t>
+    <t>12 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>766–768</t>
@@ -5627,13 +5627,13 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 46 сек.</t>
+    <t>8 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>KILLALLHUMANS</t>
   </si>
   <si>
-    <t>32 ч. 0 мин. 45 сек.</t>
+    <t>32 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>779–781</t>
@@ -5642,7 +5642,7 @@
     <t>Руна</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 9 сек.</t>
+    <t>5 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>zjdfkj134</t>
@@ -5663,7 +5663,7 @@
     <t>Гений_Печати</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 2 сек.</t>
+    <t>6 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>СэрЕжик</t>
@@ -5690,7 +5690,7 @@
     <t>kimisfan</t>
   </si>
   <si>
-    <t>4 ч. 57 мин. 9 сек.</t>
+    <t>4 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>dslf</t>
@@ -5810,7 +5810,7 @@
     <t>Boolbek</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 20 сек.</t>
+    <t>7 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>804–805</t>
@@ -5825,7 +5825,7 @@
     <t>murik</t>
   </si>
   <si>
-    <t>26 ч. 23 мин. 6 сек.</t>
+    <t>26 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>806–808</t>
@@ -5834,7 +5834,7 @@
     <t>dim2015</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 1 сек.</t>
+    <t>9 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>Тратата8888888</t>
@@ -5882,7 +5882,7 @@
     <t>XuMuK_</t>
   </si>
   <si>
-    <t>6 ч. 18 мин. 5 сек.</t>
+    <t>6 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>opisthoproctus</t>
@@ -5894,7 +5894,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 14 сек.</t>
+    <t>16 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>816–818</t>
@@ -5915,7 +5915,7 @@
     <t>Еремей</t>
   </si>
   <si>
-    <t>18 ч. 37 мин. 2 сек.</t>
+    <t>18 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>819–821</t>
@@ -5930,7 +5930,7 @@
     <t>a350</t>
   </si>
   <si>
-    <t>8 ч. 37 мин. 9 сек.</t>
+    <t>8 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>ioklmn</t>
@@ -5954,7 +5954,7 @@
     <t>Valjdemar</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 56 сек.</t>
+    <t>10 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>отлезь_вова</t>
@@ -6011,7 +6011,7 @@
     <t>AlexAlexCh</t>
   </si>
   <si>
-    <t>25 ч. 9 мин. 34 сек.</t>
+    <t>25 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>832</t>
@@ -6020,7 +6020,7 @@
     <t>ufcntkkj</t>
   </si>
   <si>
-    <t>131 ч. 0 мин. 54 сек.</t>
+    <t>131 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>833–836</t>
@@ -6035,7 +6035,7 @@
     <t>Хамякадзе</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 36 сек.</t>
+    <t>6 ч. 07 мин. 36 сек.</t>
   </si>
   <si>
     <t>JuljaJulia</t>
@@ -6056,13 +6056,13 @@
     <t>Ларис</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 7 сек.</t>
+    <t>5 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>PaP1k</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 15 сек.</t>
+    <t>8 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>spatt</t>
@@ -6092,7 +6092,7 @@
     <t>wask</t>
   </si>
   <si>
-    <t>23 ч. 12 мин. 3 сек.</t>
+    <t>23 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>forbatyr</t>
@@ -6119,7 +6119,7 @@
     <t>900</t>
   </si>
   <si>
-    <t>10 ч. 26 мин. 7 сек.</t>
+    <t>10 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>krendel_wife</t>
@@ -6134,7 +6134,7 @@
     <t>Петруша</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 7 сек.</t>
+    <t>6 ч. 12 мин. 07 сек.</t>
   </si>
   <si>
     <t>shmonder</t>
@@ -6203,7 +6203,7 @@
     <t>grebenkov</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 57 сек.</t>
+    <t>17 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>858–862</t>
@@ -6218,13 +6218,13 @@
     <t>Lupen</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 31 сек.</t>
+    <t>9 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>androed</t>
   </si>
   <si>
-    <t>12 ч. 22 мин. 0 сек.</t>
+    <t>12 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>mairabek</t>
@@ -6254,7 +6254,7 @@
     <t>passion11</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 0 сек.</t>
+    <t>10 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>865–867</t>
@@ -6263,7 +6263,7 @@
     <t>Fr1day</t>
   </si>
   <si>
-    <t>9 ч. 53 мин. 1 сек.</t>
+    <t>9 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>Aprelinka</t>
@@ -6290,7 +6290,7 @@
     <t>Sasha_smile</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 47 сек.</t>
+    <t>17 ч. 04 мин. 47 сек.</t>
   </si>
   <si>
     <t>870–872</t>
@@ -6320,7 +6320,7 @@
     <t>ra6pil</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 1 сек.</t>
+    <t>20 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>MoskovKazanova</t>
@@ -6350,7 +6350,7 @@
     <t>m3rkus</t>
   </si>
   <si>
-    <t>7 ч. 16 мин. 8 сек.</t>
+    <t>7 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>878–879</t>
@@ -6359,7 +6359,7 @@
     <t>Vel73</t>
   </si>
   <si>
-    <t>8 ч. 45 мин. 5 сек.</t>
+    <t>8 ч. 45 мин. 05 сек.</t>
   </si>
   <si>
     <t>sem941</t>
@@ -6389,7 +6389,7 @@
     <t>NodeJS</t>
   </si>
   <si>
-    <t>6 ч. 42 мин. 1 сек.</t>
+    <t>6 ч. 42 мин. 01 сек.</t>
   </si>
   <si>
     <t>883–885</t>
@@ -6404,7 +6404,7 @@
     <t>Georgio</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 29 сек.</t>
+    <t>16 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>xca</t>
@@ -6419,7 +6419,7 @@
     <t>Razvedos77</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 26 сек.</t>
+    <t>10 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>Креслоноцец</t>
@@ -6440,7 +6440,7 @@
     <t>юленька2807</t>
   </si>
   <si>
-    <t>46 ч. 7 мин. 5 сек.</t>
+    <t>46 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>890–891</t>
@@ -6497,7 +6497,7 @@
     <t>Dima716</t>
   </si>
   <si>
-    <t>25 ч. 7 мин. 34 сек.</t>
+    <t>25 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>897–898</t>
@@ -6512,7 +6512,7 @@
     <t>pyTo</t>
   </si>
   <si>
-    <t>146 ч. 5 мин. 59 сек.</t>
+    <t>146 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>899</t>
@@ -6521,7 +6521,7 @@
     <t>zdes</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 0 сек.</t>
+    <t>6 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>900–905</t>
@@ -6533,7 +6533,7 @@
     <t>vladlun1977</t>
   </si>
   <si>
-    <t>10 ч. 36 мин. 3 сек.</t>
+    <t>10 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>volchok71</t>
@@ -6551,7 +6551,7 @@
     <t>сибирь</t>
   </si>
   <si>
-    <t>39 ч. 1 мин. 35 сек.</t>
+    <t>39 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>fvn</t>
@@ -6602,7 +6602,7 @@
     <t>itrecord</t>
   </si>
   <si>
-    <t>29 ч. 9 мин. 40 сек.</t>
+    <t>29 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>912–915</t>
@@ -6671,13 +6671,13 @@
     <t>AlexVN</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 33 сек.</t>
+    <t>7 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>mizinovo1</t>
   </si>
   <si>
-    <t>11 ч. 22 мин. 5 сек.</t>
+    <t>11 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>katy5sh</t>
@@ -6698,7 +6698,7 @@
     <t>Ковровчаночка</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 24 сек.</t>
+    <t>12 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>vanster</t>
@@ -6731,7 +6731,7 @@
     <t>xland</t>
   </si>
   <si>
-    <t>20 ч. 0 мин. 14 сек.</t>
+    <t>20 ч. 00 мин. 14 сек.</t>
   </si>
   <si>
     <t>serzhev</t>
@@ -6761,7 +6761,7 @@
     <t>gabola</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 55 сек.</t>
+    <t>10 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>935–937</t>
@@ -6782,7 +6782,7 @@
     <t>staskrasovskiy</t>
   </si>
   <si>
-    <t>71 ч. 38 мин. 7 сек.</t>
+    <t>71 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>938</t>
@@ -6791,7 +6791,7 @@
     <t>griboedov</t>
   </si>
   <si>
-    <t>48 ч. 3 мин. 48 сек.</t>
+    <t>48 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>939–940</t>
@@ -6845,7 +6845,7 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>16 ч. 28 мин. 4 сек.</t>
+    <t>16 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>misha13300</t>
@@ -6869,7 +6869,7 @@
     <t>Serko72</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 55 сек.</t>
+    <t>7 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>949</t>
@@ -6878,7 +6878,7 @@
     <t>vitalion_</t>
   </si>
   <si>
-    <t>14 ч. 2 мин. 52 сек.</t>
+    <t>14 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>950</t>
@@ -6944,13 +6944,13 @@
     <t>Mary27</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 57 сек.</t>
+    <t>7 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>keyboard_jerker</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 10 сек.</t>
+    <t>13 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>959–961</t>
@@ -6959,7 +6959,7 @@
     <t>elminia</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 4 сек.</t>
+    <t>11 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>Agen</t>
@@ -6980,7 +6980,7 @@
     <t>Биолог467</t>
   </si>
   <si>
-    <t>51 ч. 4 мин. 43 сек.</t>
+    <t>51 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>963–964</t>
@@ -6995,7 +6995,7 @@
     <t>arinori</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 41 сек.</t>
+    <t>11 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>965–966</t>
@@ -7004,7 +7004,7 @@
     <t>andreysharipov</t>
   </si>
   <si>
-    <t>9 ч. 35 мин. 4 сек.</t>
+    <t>9 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>ip_2112</t>
@@ -7061,7 +7061,7 @@
     <t>olta19</t>
   </si>
   <si>
-    <t>45 ч. 5 мин. 53 сек.</t>
+    <t>45 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>974–976</t>
@@ -7076,7 +7076,7 @@
     <t>Captain_snail</t>
   </si>
   <si>
-    <t>11 ч. 33 мин. 0 сек.</t>
+    <t>11 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>muscus</t>
@@ -7097,13 +7097,13 @@
     <t>volchok962</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 33 сек.</t>
+    <t>15 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>sergunn2008</t>
   </si>
   <si>
-    <t>33 ч. 15 мин. 8 сек.</t>
+    <t>33 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>980–982</t>
@@ -7118,7 +7118,7 @@
     <t>ruslan_stef</t>
   </si>
   <si>
-    <t>29 ч. 3 мин. 15 сек.</t>
+    <t>29 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>grenkoff</t>
@@ -7253,7 +7253,7 @@
     <t>Katariada</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 19 сек.</t>
+    <t>8 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>Bochkom</t>
@@ -7277,7 +7277,7 @@
     <t>silut1</t>
   </si>
   <si>
-    <t>13 ч. 26 мин. 5 сек.</t>
+    <t>13 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>lagerto</t>
@@ -7304,7 +7304,7 @@
     <t>Поня-моня</t>
   </si>
   <si>
-    <t>52 ч. 23 мин. 2 сек.</t>
+    <t>52 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>bolt25</t>
@@ -7319,7 +7319,7 @@
     <t>katetime2000</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 30 сек.</t>
+    <t>11 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>1009–1011</t>
@@ -7340,7 +7340,7 @@
     <t>ВкусВетра</t>
   </si>
   <si>
-    <t>16 ч. 40 мин. 6 сек.</t>
+    <t>16 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>1012</t>
@@ -7376,7 +7376,7 @@
     <t>iknyaz</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 58 сек.</t>
+    <t>32 ч. 08 мин. 58 сек.</t>
   </si>
   <si>
     <t>1016</t>
@@ -7415,7 +7415,7 @@
     <t>alensw4</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 26 сек.</t>
+    <t>16 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>1021</t>
@@ -7433,7 +7433,7 @@
     <t>alanko</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 37 сек.</t>
+    <t>26 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>1023–1024</t>
@@ -7475,7 +7475,7 @@
     <t>Irinaya</t>
   </si>
   <si>
-    <t>10 ч. 47 мин. 5 сек.</t>
+    <t>10 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>1028</t>
@@ -7484,7 +7484,7 @@
     <t>Якоб</t>
   </si>
   <si>
-    <t>23 ч. 19 мин. 7 сек.</t>
+    <t>23 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>1029</t>
@@ -7538,7 +7538,7 @@
     <t>Светорада</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 9 сек.</t>
+    <t>16 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>1035</t>
@@ -7565,7 +7565,7 @@
     <t>monday</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 3 сек.</t>
+    <t>12 ч. 03 мин. 03 сек.</t>
   </si>
   <si>
     <t>1038</t>
